--- a/FileUpload/VerificationData.xlsx
+++ b/FileUpload/VerificationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,14 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>84733090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84717010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内存条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,14 @@
   </si>
   <si>
     <t>报关单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8473309000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8471701000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -610,14 +610,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -656,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -667,25 +667,25 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
@@ -699,25 +699,25 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -731,25 +731,25 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>

--- a/FileUpload/VerificationData.xlsx
+++ b/FileUpload/VerificationData.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>报关单号</t>
   </si>
@@ -153,15 +152,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报关单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8473309000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8471701000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进出类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMD16970012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空运进口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +218,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,10 +259,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -534,49 +569,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -597,6 +676,160 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -604,159 +837,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>